--- a/data/trans_camb/P14B35-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P14B35-Clase-trans_camb.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3084405391284971</v>
+        <v>0.3088257991214811</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.701382263065568</v>
+        <v>2.555343318302336</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.415829204897341</v>
+        <v>3.4062934025408</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.622137158458819</v>
+        <v>1.970541765230858</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.369277710938837</v>
+        <v>6.166463948261931</v>
       </c>
     </row>
     <row r="7">
@@ -701,13 +701,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5976105166876977</v>
+        <v>0.6029932291230036</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2667577117693997</v>
+        <v>0.2649668942277245</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.120022228178075</v>
+        <v>2.813535539007779</v>
       </c>
     </row>
     <row r="12">
@@ -718,13 +718,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.306332272625032</v>
+        <v>3.523068025998792</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.518833560196061</v>
+        <v>2.524121815150703</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.035329503705704</v>
+        <v>6.957410869005642</v>
       </c>
     </row>
     <row r="13">
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.748494910192094</v>
+        <v>0.4582366249258104</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.239607711048421</v>
+        <v>1.908627673009429</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.717545012891576</v>
+        <v>3.623533441084149</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.393913320563501</v>
+        <v>5.566712615770237</v>
       </c>
     </row>
     <row r="19">
@@ -901,13 +901,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.139630757848824</v>
+        <v>1.083077946667222</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2253319160951789</v>
+        <v>0.2249707544578951</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.778428514763143</v>
+        <v>2.83425272164459</v>
       </c>
     </row>
     <row r="24">
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.2109471490631</v>
+        <v>3.163592112150177</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.256114104514788</v>
+        <v>1.251546589559127</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.545097866426361</v>
+        <v>5.380310327449993</v>
       </c>
     </row>
     <row r="25">
@@ -1001,13 +1001,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.4106347453791848</v>
+        <v>0.4123406182555736</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1106616327873519</v>
+        <v>0.1104597414321427</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.29921816634221</v>
+        <v>1.250058656283636</v>
       </c>
     </row>
     <row r="30">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.100381976625293</v>
+        <v>2.070263319024466</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.004887152339688</v>
+        <v>1.004281359975949</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.062531243363449</v>
+        <v>2.966278494234576</v>
       </c>
     </row>
     <row r="31">
@@ -1101,13 +1101,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.4565361109221727</v>
+        <v>0.4536977601248857</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>0.08753486355432698</v>
+        <v>0.09192812257217674</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1.399533297167974</v>
+        <v>1.445321112038476</v>
       </c>
     </row>
     <row r="36">
@@ -1118,13 +1118,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1.604451847252999</v>
+        <v>1.590364529854101</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.9043916746652357</v>
+        <v>0.915372209759822</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4.720228385274703</v>
+        <v>4.818747902260028</v>
       </c>
     </row>
     <row r="37">
@@ -1201,13 +1201,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.8927879367586673</v>
+        <v>0.8740776153121962</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.2976708267206482</v>
+        <v>0.3011643085432275</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>2.658250263664584</v>
+        <v>2.663895076368162</v>
       </c>
     </row>
     <row r="42">
@@ -1218,13 +1218,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.629165682126751</v>
+        <v>1.635560467879148</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.7460750039889946</v>
+        <v>0.7513726234412295</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3.905026056219333</v>
+        <v>3.870131828852998</v>
       </c>
     </row>
     <row r="43">
